--- a/Lease_Contract_Extraction_Phase_I/Data/Plot100_Contract_Lease_Master.xlsx
+++ b/Lease_Contract_Extraction_Phase_I/Data/Plot100_Contract_Lease_Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lease_Data_101\Lease_Contract_Data\Lease_Contract_Extraction_Phase_I\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54C7355-F7DF-4A71-8A6E-419921D3336D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FA6A09-0C3F-4303-BC88-B9683314477A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>Property</t>
   </si>
@@ -69,18 +69,9 @@
     <t>Term of Lease</t>
   </si>
   <si>
-    <t xml:space="preserve">Residents Management Company (RMC) </t>
-  </si>
-  <si>
     <t>Development  Management Company (DMC)</t>
   </si>
   <si>
-    <t>Rights granted for the benefit of this property</t>
-  </si>
-  <si>
-    <t>Rights reserved in favour of the Landlord and others</t>
-  </si>
-  <si>
     <t xml:space="preserve">The completion date will be on </t>
   </si>
   <si>
@@ -96,18 +87,12 @@
     <t>BDW TRADING LIMITED (company registration number 03018173) of Barratt House, Cartwright Way, Forest Business Park, Bardon Hill, Coalville, Leicestershire LE67 1UF</t>
   </si>
   <si>
-    <t>MIHAELA STARLUCIUC &amp; RAZVAN STARLUCIUC of 157 Kingsbrook Basin, Broughton, Aylesbury, HP22 7EP</t>
-  </si>
-  <si>
     <t>REGISTRATION, THIS CLAUSE SHALL PREVAIL. Plot 100 157 Kingsbrook Basin, Broughton, Aylesbury, HP22 7EP</t>
   </si>
   <si>
     <t>999 years from and including 1 July 2022</t>
   </si>
   <si>
-    <t>The sum of Two Hundred And Fifty-Eight Thousand, Nine Hundred And Ninety-Five Pounds (£258,995.00).</t>
-  </si>
-  <si>
     <t>edged red</t>
   </si>
   <si>
@@ -147,30 +132,18 @@
     <t>CHAPTER 11: DISPOSALS OF YOUR PROPERTY</t>
   </si>
   <si>
-    <t>Covenants and obligations of the Landlord(Chapter 14)</t>
-  </si>
-  <si>
     <t>Covenants and obligations of the Landlord(Chapter 12)</t>
   </si>
   <si>
     <t>CHAPTER 12: LANDLORD'S OBLIGATIONS RELATING TO CONSTRUCTION OF THE ESTATE</t>
   </si>
   <si>
-    <t>CHAPTER 14: ENFORCEMENT AND EXTENT OF OBLIGATIONS</t>
-  </si>
-  <si>
     <t>Kingsbrook Estate Management Company Limited</t>
   </si>
   <si>
     <t>Covenants by the Management Company(Chapter 6)</t>
   </si>
   <si>
-    <t>Covenants by the Management Company(Chapter 7)</t>
-  </si>
-  <si>
-    <t>CHAPTER 7: INSURANCE</t>
-  </si>
-  <si>
     <t>CANAL QUARTER MANAGEMENT COMPANY LIMITED whose registered address is 2 Hills Road, Cambridge CB2 1JP (Company Registration Number 11780279)</t>
   </si>
   <si>
@@ -190,6 +163,42 @@
   </si>
   <si>
     <t xml:space="preserve">10 working days </t>
+  </si>
+  <si>
+    <t>Landlord_2</t>
+  </si>
+  <si>
+    <t>Residents Management Company (RMC)</t>
+  </si>
+  <si>
+    <t>BDW TRADING LIMITED</t>
+  </si>
+  <si>
+    <t>MIHAELA STARLUCIUC and RAZVAN STARLUCIUC</t>
+  </si>
+  <si>
+    <t>£258,995.00</t>
+  </si>
+  <si>
+    <t>Type of Property</t>
+  </si>
+  <si>
+    <t>Parking Space</t>
+  </si>
+  <si>
+    <t>Purchase price at a rate of</t>
+  </si>
+  <si>
+    <t>parking space is marked on PLAN 1 with P followed by the plot number of YOUR PROPERTY</t>
+  </si>
+  <si>
+    <t>APARTMENT</t>
+  </si>
+  <si>
+    <t>Rights granted for the benefit of this property(Chapter 3)</t>
+  </si>
+  <si>
+    <t>Rights reserved in favour of the Landlord and others(Chapter 4)</t>
   </si>
 </sst>
 </file>
@@ -205,12 +214,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -240,11 +267,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,42 +573,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="90" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="60.85546875" customWidth="1"/>
     <col min="4" max="4" width="65.28515625" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="53.28515625" customWidth="1"/>
+    <col min="7" max="7" width="41.42578125" customWidth="1"/>
     <col min="8" max="8" width="52.140625" customWidth="1"/>
-    <col min="9" max="9" width="49.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="62.5703125" customWidth="1"/>
+    <col min="11" max="11" width="47" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" customWidth="1"/>
     <col min="14" max="14" width="27.7109375" customWidth="1"/>
-    <col min="17" max="17" width="95.85546875" customWidth="1"/>
+    <col min="15" max="15" width="164.85546875" customWidth="1"/>
+    <col min="16" max="16" width="63.28515625" customWidth="1"/>
+    <col min="17" max="17" width="151" customWidth="1"/>
     <col min="18" max="18" width="54.140625" customWidth="1"/>
-    <col min="19" max="19" width="31.7109375" customWidth="1"/>
+    <col min="19" max="19" width="58.42578125" customWidth="1"/>
     <col min="20" max="20" width="72.7109375" customWidth="1"/>
     <col min="21" max="21" width="57" customWidth="1"/>
     <col min="22" max="22" width="55.7109375" customWidth="1"/>
     <col min="23" max="23" width="73.85546875" customWidth="1"/>
     <col min="24" max="24" width="65.7109375" customWidth="1"/>
-    <col min="25" max="25" width="52.5703125" customWidth="1"/>
-    <col min="27" max="27" width="33.28515625" customWidth="1"/>
-    <col min="28" max="28" width="30.7109375" customWidth="1"/>
-    <col min="29" max="29" width="15.140625" customWidth="1"/>
+    <col min="25" max="25" width="64.85546875" customWidth="1"/>
+    <col min="26" max="26" width="56.5703125" customWidth="1"/>
+    <col min="27" max="27" width="57.140625" customWidth="1"/>
+    <col min="28" max="28" width="71.42578125" customWidth="1"/>
+    <col min="29" max="29" width="48" customWidth="1"/>
+    <col min="30" max="30" width="31.7109375" customWidth="1"/>
+    <col min="31" max="31" width="26.7109375" customWidth="1"/>
+    <col min="32" max="32" width="43.42578125" customWidth="1"/>
+    <col min="33" max="33" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -568,22 +629,22 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -592,7 +653,7 @@
       <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -605,144 +666,153 @@
         <v>13</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>12</v>
+      <c r="AC1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="U2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
         <v>27</v>
       </c>
-      <c r="M2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>43</v>
-      </c>
       <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="AC2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AD2" t="s">
-        <v>22</v>
+      <c r="AE2" s="10">
+        <v>0.04</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>100</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
@@ -821,8 +891,20 @@
       <c r="AD3" t="b">
         <v>1</v>
       </c>
+      <c r="AE3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Lease_Contract_Extraction_Phase_I/Data/Plot100_Contract_Lease_Master.xlsx
+++ b/Lease_Contract_Extraction_Phase_I/Data/Plot100_Contract_Lease_Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lease_Data_101\Lease_Contract_Data\Lease_Contract_Extraction_Phase_I\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FA6A09-0C3F-4303-BC88-B9683314477A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2844DE83-4CA1-45DD-86E1-B851C3A99DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
   <si>
     <t>Property</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Plot</t>
   </si>
   <si>
-    <t xml:space="preserve">Title </t>
-  </si>
-  <si>
     <t>Title Number</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>Development  Management Company (DMC)</t>
   </si>
   <si>
-    <t xml:space="preserve">The completion date will be on </t>
-  </si>
-  <si>
     <t>Plot_Number</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
     <t>BDW TRADING LIMITED (company registration number 03018173) of Barratt House, Cartwright Way, Forest Business Park, Bardon Hill, Coalville, Leicestershire LE67 1UF</t>
   </si>
   <si>
-    <t>REGISTRATION, THIS CLAUSE SHALL PREVAIL. Plot 100 157 Kingsbrook Basin, Broughton, Aylesbury, HP22 7EP</t>
-  </si>
-  <si>
     <t>999 years from and including 1 July 2022</t>
   </si>
   <si>
@@ -199,6 +190,39 @@
   </si>
   <si>
     <t>Rights reserved in favour of the Landlord and others(Chapter 4)</t>
+  </si>
+  <si>
+    <t>The completion date will be on</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Plot 100  157 Kingsbrook Basin, Broughton, Aylesbury, HP22 7EP</t>
+  </si>
+  <si>
+    <t>Plot 90  169 Kingsbrook Basin, Broughton, Aylesbury, HP22 7EP</t>
+  </si>
+  <si>
+    <t>169 Kingsbrook Basin, Broughton, Aylesbury, HP22 7EP</t>
+  </si>
+  <si>
+    <t>PALKUMAR MANDALA and LAVANYA JYOTHI YANAMALA</t>
+  </si>
+  <si>
+    <t>£253,995.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Leasehold</t>
+  </si>
+  <si>
+    <t>10 working days</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -292,7 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +615,7 @@
     <col min="8" max="8" width="52.140625" customWidth="1"/>
     <col min="9" max="9" width="22.5703125" customWidth="1"/>
     <col min="10" max="10" width="62.5703125" customWidth="1"/>
-    <col min="11" max="11" width="47" customWidth="1"/>
+    <col min="11" max="11" width="82.140625" customWidth="1"/>
     <col min="12" max="12" width="26.7109375" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" customWidth="1"/>
     <col min="14" max="14" width="27.7109375" customWidth="1"/>
@@ -618,10 +642,10 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -654,61 +678,64 @@
         <v>9</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="U1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="Y1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="AA1" s="3" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AE1" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -716,91 +743,91 @@
         <v>100</v>
       </c>
       <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="T2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA2" t="s">
         <v>42</v>
       </c>
-      <c r="I2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>45</v>
-      </c>
       <c r="AB2" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE2" s="10">
-        <v>0.04</v>
+        <v>51</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
@@ -895,9 +922,188 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>101</v>
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>90</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5" t="b">
+        <v>1</v>
+      </c>
+      <c r="U5" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" t="b">
+        <v>1</v>
+      </c>
+      <c r="X5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
